--- a/documents/designs/DuLieuMonHoc.xlsx
+++ b/documents/designs/DuLieuMonHoc.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HocTap\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET\NetCore\Project\CurriculumManager\CurriculumManager\documents\designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FB3D1-19E5-45E1-9777-2F58E3D0E769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DuLieu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3575,7 +3585,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -3921,11 +3931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F510"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B514" sqref="B514"/>
+    <sheetView tabSelected="1" topLeftCell="E496" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,11 +3946,12 @@
     <col min="4" max="4" width="45.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="102" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3960,7 +3971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3977,8 +3988,12 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="str">
+        <f>"INSERT INTO AppSubjects VALUES('"&amp;A2&amp;"',N'"&amp;B2&amp;"','"&amp;C2&amp;"',N'"&amp;D2&amp;"',N'"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('ML111',N'Triết học Mác-Lênin','2',N'',N'27','1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3995,8 +4010,12 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G66" si="0">"INSERT INTO AppSubjects VALUES('"&amp;A3&amp;"',N'"&amp;B3&amp;"','"&amp;C3&amp;"',N'"&amp;D3&amp;"',N'"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('ML112',N'Kinh tế chính trị và CNXH khoa học','3',N'',N'41','1')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -4015,8 +4034,12 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('ML202',N'Tư tưởng Hồ Chí Minh','2',N'ML111',N'27','1')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -4035,8 +4058,12 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('ML203',N'Đường lối cách mạng của Đảng CS Việt Nam','3',N'ML202',N'40','1')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4053,8 +4080,12 @@
       <c r="F6" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MA101',N'Logic, suy luận toán học và kỹ thuật đếm','3',N'',N'18LT+36BT','1.3')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4073,8 +4104,12 @@
       <c r="F7" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MA103',N'Số cấu trúc và đại số','2',N'MA101',N'18LT+18BT','1.3')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -4091,8 +4126,12 @@
       <c r="F8" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS100',N'Tin đại cương','2',N'',N'18LT+18TH','1.5')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -4109,8 +4148,12 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('NA151',N'Khoa học môi trường','2',N'',N'24','1')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -4127,8 +4170,12 @@
       <c r="F10" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('EC102',N'Nhập môn kinh tế','2',N'',N'27','1.2')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -4145,8 +4192,12 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('VL101',N'Tiếng Việt thực hành','2',N'',N'27','1')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -4163,8 +4214,12 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('SH131',N'Pháp luật đại cương','2',N'',N'27','1')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -4181,8 +4236,12 @@
       <c r="F13" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE101',N'Tiếng anh sơ cấp 1','2',N'',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -4201,8 +4260,12 @@
       <c r="F14" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE102',N'Tiếng anh sơ cấp 2','2',N'GE101',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -4221,8 +4284,12 @@
       <c r="F15" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE103',N'Tiếng anh sơ cấp 3','2',N'GE101,GE102&gt;=5',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4241,8 +4308,12 @@
       <c r="F16" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE201',N'Tiếng anh sơ trung cấp 1','2',N'GE103,GE102&gt;=5',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4261,8 +4332,12 @@
       <c r="F17" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE202',N'Tiếng anh sơ trung cấp 2','2',N'GE201,GE103&gt;=5',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -4281,8 +4356,12 @@
       <c r="F18" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE205',N'Tiếng anh sơ trung cấp 3','2',N'GE202,GE201&gt;=5',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -4301,8 +4380,12 @@
       <c r="F19" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE301',N'Tiếng anh trung cấp 1','2',N'GE205,GE202&gt;=5',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -4321,8 +4404,12 @@
       <c r="F20" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE303',N'Tiếng anh trung cấp 2','2',N'GE301,GE205&gt;=5',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -4341,8 +4428,12 @@
       <c r="F21" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GE305',N'Tiếng anh trung cấp 3','2',N'GE303,GE301&gt;=5',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -4359,8 +4450,12 @@
       <c r="F22" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GF101',N'Tiếng Pháp 1','2',N'',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -4379,8 +4474,12 @@
       <c r="F23" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GF102',N'Tiếng Pháp 2','2',N'GF101',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -4397,8 +4496,12 @@
       <c r="F24" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ101',N'Tiếng Nhật 1','2',N'',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -4417,8 +4520,12 @@
       <c r="F25" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ102',N'Tiếng Nhật 2','2',N'GJ101',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -4435,8 +4542,12 @@
       <c r="F26" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ101',N'Tiếng Trung 1','2',N'',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -4455,8 +4566,12 @@
       <c r="F27" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ102',N'Tiếng Trung 2','2',N'GZ101',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -4473,8 +4588,12 @@
       <c r="F28" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GI101',N'Tiếng Ý 1','2',N'',N'54','0.75')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -4493,8 +4612,12 @@
       <c r="F29" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GI102',N'Tiếng Ý 2','2',N'GI101',N'54','0.75')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -4511,8 +4634,12 @@
       <c r="F30" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GK101',N'Tiếng Hàn 1','2',N'',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -4531,8 +4658,12 @@
       <c r="F31" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('GK102',N'Tiếng Hàn 2','2',N'GK101',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -4549,8 +4680,12 @@
       <c r="F32" s="2">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('PG100',N'Giáo dục thể chất','4',N'',N'54','1.4')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -4567,8 +4702,12 @@
       <c r="F33" s="2">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('PG121',N'Giáo dục quốc phòng','4',N'',N'72','1.2')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -4587,8 +4726,12 @@
       <c r="F34" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('SM201',N'Phương pháp luận nghiên cứu khoa học','3',N'36 tín chỉ',N'36LT+36BT','1.4')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
@@ -4607,8 +4750,12 @@
       <c r="F35" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MA110',N'Giải tích 1','3',N'MA101',N'36LT+18BT','1.6')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -4627,8 +4774,12 @@
       <c r="F36" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MA111',N'Giải tích 2','3',N'MA110',N'36LT+18BT','1.6')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -4647,8 +4798,12 @@
       <c r="F37" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MA120',N'Đại số tuyến tính','3',N'MA101',N'36LT+18BT','1.6')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -4667,8 +4822,12 @@
       <c r="F38" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MA231',N'Xác suất thống kê ứng dụng','4',N'MA120,CS100',N'36LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -4687,8 +4846,12 @@
       <c r="F39" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MI201',N'Toán rời rạc','3',N'CS122',N'18LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -4707,8 +4870,12 @@
       <c r="F40" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CF212',N'Cấu trúc dữ liệu','3',N'CS122',N'27LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>86</v>
       </c>
@@ -4727,8 +4894,12 @@
       <c r="F41" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS110',N'Kỹ thuật số','2',N'MA101 hoặc MA100A,MA101A',N'36LT+36BT','1.4')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -4744,8 +4915,12 @@
       <c r="F42" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS121',N'Ngôn ngữ lập trình','3',N'',N'27LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -4764,8 +4939,12 @@
       <c r="F43" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS122',N'Lập trình hướng đối tượng','3',N'CS121',N'27LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -4784,8 +4963,12 @@
       <c r="F44" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS212',N'Kiến trúc máy tính','3',N'CS110,CS122',N'18LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -4804,8 +4987,12 @@
       <c r="F45" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS315',N'Nguyên lý hệ điều hành','3',N'CS212',N'27LT+18TH','1.5')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,8 +5011,12 @@
       <c r="F46" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('IS222',N'Cơ sở dữ liệu','3',N'CS121,MA101',N'27LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -4844,8 +5035,12 @@
       <c r="F47" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('NW212',N'Mạng máy tính','2',N'CS212',N'36LT+36BT','1.4')</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
@@ -4864,8 +5059,12 @@
       <c r="F48" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CF231',N'Lý thuyết thông tin va mã hóa ','2',N'MA231',N'36LT+36BT','1.4')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
@@ -4884,8 +5083,12 @@
       <c r="F49" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CF301',N'Ngôn ngữ hình thức Otomat','3',N'MI201',N'45LT+45BT','1.6')</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
@@ -4904,8 +5107,12 @@
       <c r="F50" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('IS314',N'Hệ thống thông tin','3',N'IS222',N'45LT+45BT','1.6')</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -4924,8 +5131,12 @@
       <c r="F51" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('IS322',N'Hệ quản trị cơ sở dữ liệu','3',N'IS222',N'18LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -4944,8 +5155,12 @@
       <c r="F52" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('IS332',N'Phân tích thiết kế hướng đối tượng','3',N'CS122,IS222',N'27LT+18TH','1.5')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -4964,8 +5179,12 @@
       <c r="F53" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MI312',N'Đồ họa','2',N'CS122,MA120',N'18LT+18TH','1.6')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>129</v>
       </c>
@@ -4984,8 +5203,12 @@
       <c r="F54" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('MI321',N'Trí tuệ nhân tạo','3',N'MI201,CF212',N'45LT+45BT','1.6')</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>130</v>
       </c>
@@ -5004,8 +5227,12 @@
       <c r="F55" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('SE302',N'Công nghệ phần mềm','2',N'US332',N'36LT+36BT','1.6')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
@@ -5024,8 +5251,12 @@
       <c r="F56" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('SE422',N'Quản lý dự án phần mềm','3',N'SE302',N'27LT+18TH','1.6')</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
@@ -5044,8 +5275,12 @@
       <c r="F57" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('SE312',N'Kiểm thử và đảm bảo chất lượng phần mềm','3',N'SE302',N'18LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>133</v>
       </c>
@@ -5064,8 +5299,12 @@
       <c r="F58" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('SE380',N'Project','3',N'SE302',N'18LT+27TH','1.4')</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>134</v>
       </c>
@@ -5084,8 +5323,12 @@
       <c r="F59" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('US345',N'An toàn thông tin','3',N'CF231',N'27LT+18TH','1.5')</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -5104,8 +5347,12 @@
       <c r="F60" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('NW312',N'Thiết kế và quản trị mạng','3',N'NW212',N'27LT+36TH','1.6')</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>136</v>
       </c>
@@ -5124,8 +5371,12 @@
       <c r="F61" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('NW332',N'An toàn mạng','3',N'NW312',N'45LT+45BT','1.6')</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>153</v>
       </c>
@@ -5144,8 +5395,12 @@
       <c r="F62" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CF211',N'Phân tích và thiết kế thuật toán','2',N'CS121',N'18LT+18TH','1.6')</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>154</v>
       </c>
@@ -5164,8 +5419,12 @@
       <c r="F63" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS223',N'Lập trình Java','3',N'CS122',N'27LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>155</v>
       </c>
@@ -5184,8 +5443,12 @@
       <c r="F64" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS224',N'Lập trình .NET','3',N'IS222',N'27LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>156</v>
       </c>
@@ -5204,8 +5467,12 @@
       <c r="F65" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS311',N'Lập trính ứng dụng di động','2',N'CS122',N'36LT+36TH','1.5')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>157</v>
       </c>
@@ -5224,8 +5491,12 @@
       <c r="F66" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO AppSubjects VALUES('CS312',N'Lập trình hệ thống','3',N'CS212',N'27LT+18TH','1.5')</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>158</v>
       </c>
@@ -5244,8 +5515,12 @@
       <c r="F67" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="1" t="str">
+        <f t="shared" ref="G67:G130" si="1">"INSERT INTO AppSubjects VALUES('"&amp;A67&amp;"',N'"&amp;B67&amp;"','"&amp;C67&amp;"',N'"&amp;D67&amp;"',N'"&amp;E67&amp;"','"&amp;F67&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('CS316',N'Hệ điều hành UNIX','3',N'CS212',N'27LT+18TH','1.5')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>159</v>
       </c>
@@ -5264,8 +5539,12 @@
       <c r="F68" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('CS325',N'Lập trình PHP','3',N'IS222',N'18LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
@@ -5284,8 +5563,12 @@
       <c r="F69" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('CS425',N'Một số vấn đề hiện đại trong khoa học máy tính','2',N'90 tín chỉ',N'36LT+36BT','1.6')</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>161</v>
       </c>
@@ -5304,8 +5587,12 @@
       <c r="F70" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IS424',N'Lập trình cơ sở dữ liệu','3',N'IS322',N'18LT+27TH','1.6')</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>162</v>
       </c>
@@ -5324,8 +5611,12 @@
       <c r="F71" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IS333',N'Phân tích thiết kế hệ thống thông tin','2',N'IS222',N'36LT+36BT','1.5')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>163</v>
       </c>
@@ -5344,8 +5635,12 @@
       <c r="F72" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IS325',N'Cơ sở dữ liệu phân tán','2',N'IS222, NW212',N'18LT+18TH','1.6')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>164</v>
       </c>
@@ -5364,8 +5659,12 @@
       <c r="F73" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IS383',N'Hệ thống thông tin nâng cao','2',N'IS314',N'18LT+18TH','1.6')</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>165</v>
       </c>
@@ -5384,8 +5683,12 @@
       <c r="F74" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('MI414',N'Giao diện người máy','2',N'MI321',N'18LT+18TH','1.6')</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>166</v>
       </c>
@@ -5404,8 +5707,12 @@
       <c r="F75" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IP401',N'Thực tập ngành khoa học máy tính','2',N'&gt;= 100 tín chỉ',N'36','1.3')</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>167</v>
       </c>
@@ -5424,8 +5731,12 @@
       <c r="F76" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('CS499',N'KLTN ngành khoa học máy tính','6',N'&gt;= 120 tín chỉ',N'90','3')</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>168</v>
       </c>
@@ -5444,8 +5755,12 @@
       <c r="F77" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IS484',N'CĐTN: Cơ sở dữ liệu','6',N'110 tín chỉ, IS322',N'81','2.5')</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
@@ -5464,8 +5779,12 @@
       <c r="F78" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('NW439',N'CĐTN: An toàn mạng','6',N'110 tín chỉ, NW312',N'81','2.5')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>170</v>
       </c>
@@ -5484,8 +5803,12 @@
       <c r="F79" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('SE487',N'CĐTN: Phát triển phần mềm','6',N'110 tín chỉ, SE302',N'81','2.5')</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -5501,8 +5824,12 @@
       <c r="F80" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD204',N'Ẩm thực Việt Nam','3',N'',N'27LT+27TH','1.8')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -5521,8 +5848,12 @@
       <c r="F81" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD212',N'Phương pháp hùng biện và các thủ thuật tranh biện','3',N'36 tín chỉ',N'36LT+36BT','1.4')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
@@ -5541,8 +5872,12 @@
       <c r="F82" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD213',N'Hát - Nhạc','3',N'36 tín chỉ',N'45LT+45TH','1.5')</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
@@ -5561,8 +5896,12 @@
       <c r="F83" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD214',N'Nâng cao chất lượng giọng hát','3',N'AD213',N'45TH','1.8')</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>175</v>
       </c>
@@ -5581,8 +5920,12 @@
       <c r="F84" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD215',N'Ứng dụng Powerpoint','3',N'IM201 hoặc IM202',N'45LT+45TH','1.6')</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>176</v>
       </c>
@@ -5601,8 +5944,12 @@
       <c r="F85" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD216',N'Tâm lý và kỹ năng giao tiếp với người cao tuổi','3',N'50 tín chỉ',N'36LT+36BT','1.4')</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>177</v>
       </c>
@@ -5618,8 +5965,12 @@
       <c r="F86" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD312',N'Bóng đá','4',N'',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
@@ -5638,8 +5989,12 @@
       <c r="F87" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD313',N'Bóng đá nâng cao','4',N'AD312',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -5655,8 +6010,12 @@
       <c r="F88" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD314',N'Nhảy hiện đại','4',N'',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -5675,8 +6034,12 @@
       <c r="F89" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD315',N'Nhảy hiện đại nâng cao','4',N'AD314',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>181</v>
       </c>
@@ -5695,8 +6058,12 @@
       <c r="F90" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AD414',N'TOEIC','2',N'GE305',N'54','1.5')</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>223</v>
       </c>
@@ -5715,8 +6082,12 @@
       <c r="F91" s="2">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('MA142',N'Đại số tuyến tính, giải tích và ứng dụng trong kinh tế','4',N'MA101,EC101',N'36LT+18BT','1.4')</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>224</v>
       </c>
@@ -5735,8 +6106,12 @@
       <c r="F92" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IM203',N'Ứng dụng Excel hoặc','3',N'IM201',N'45(LT+TH)','1.6')</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>225</v>
       </c>
@@ -5755,8 +6130,12 @@
       <c r="F93" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('IM204',N'Ứng dụng Cal','3',N'IM202',N'45(LT+TH)','1.5')</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>226</v>
       </c>
@@ -5775,8 +6154,12 @@
       <c r="F94" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('Í382',N'Công nghệ thông tin trong doanh nghiệp','2',N'100 tín chỉ, BA102,MK202',N'18LT+18BT','1.6')</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>227</v>
       </c>
@@ -5795,8 +6178,12 @@
       <c r="F95" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC201',N'Nguyên lý kế toán','3',N'40 tín chỉ',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>228</v>
       </c>
@@ -5815,8 +6202,12 @@
       <c r="F96" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('BA102',N'Quản trị học đại cương','3',N'EC101 hoặc EC201',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>230</v>
       </c>
@@ -5835,8 +6226,12 @@
       <c r="F97" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('EC312',N'Kinh tế lượng','3',N'MA231',N'27LT+18BT','1.5')</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>231</v>
       </c>
@@ -5855,8 +6250,12 @@
       <c r="F98" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('EC204',N'Kinh tế vi mô','3',N'EC101',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>229</v>
       </c>
@@ -5875,8 +6274,12 @@
       <c r="F99" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('EC205',N'Kinh tế vĩ mô','3',N'EC101',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>232</v>
       </c>
@@ -5895,8 +6298,12 @@
       <c r="F100" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('EC221',N'Luật kinh tế','2',N'SH131',N'27','1.3')</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>233</v>
       </c>
@@ -5915,8 +6322,12 @@
       <c r="F101" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('FN201',N'Lý thuyết tài chính tiền tệ','3',N'48 tín chỉ',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>289</v>
       </c>
@@ -5935,8 +6346,12 @@
       <c r="F102" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('FN211',N'Tài chính doanh nghiệp','3',N'FN201A hoặc FN201,AC201',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>234</v>
       </c>
@@ -5955,8 +6370,12 @@
       <c r="F103" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('MK202',N'Marketing căn bản','3',N'EC101 hoặc EC201',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>235</v>
       </c>
@@ -5975,8 +6394,12 @@
       <c r="F104" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC211',N'Kế toán tài chính 1','3',N'AC201',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>236</v>
       </c>
@@ -5995,8 +6418,12 @@
       <c r="F105" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC212',N'Kế toán tài chính 2','3',N'AC211',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>237</v>
       </c>
@@ -6015,8 +6442,12 @@
       <c r="F106" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC314',N'Kế toán máy','2',N'AC212',N'18LT+18BT','1.6')</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>238</v>
       </c>
@@ -6035,8 +6466,12 @@
       <c r="F107" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC316',N'Kế toán tài chính 3','3',N'AC212',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>239</v>
       </c>
@@ -6055,8 +6490,12 @@
       <c r="F108" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC315',N'Kế toán công','2',N'AC211',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>240</v>
       </c>
@@ -6075,8 +6514,12 @@
       <c r="F109" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC317',N'Tổ chức hạch toán kế toán','3',N'AC316',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>241</v>
       </c>
@@ -6095,8 +6538,12 @@
       <c r="F110" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC231',N'Kế toán Mỹ 1','3',N'AC211',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>242</v>
       </c>
@@ -6115,8 +6562,12 @@
       <c r="F111" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC333',N'Kế toán Mỹ 2','3',N'AC231',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>243</v>
       </c>
@@ -6135,8 +6586,12 @@
       <c r="F112" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC335',N'Kế toán công ty','2',N'AC212',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>244</v>
       </c>
@@ -6155,8 +6610,12 @@
       <c r="F113" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC341',N'Kế toán quản trị','3',N'AC210 hoặc AC212',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>245</v>
       </c>
@@ -6175,8 +6634,12 @@
       <c r="F114" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC362',N'Lý thuyết kiểm toán','2',N'AC212',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>246</v>
       </c>
@@ -6195,8 +6658,12 @@
       <c r="F115" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC363',N'Kiếm toán báo cáo tài chính','2',N'AC362',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>247</v>
       </c>
@@ -6215,8 +6682,12 @@
       <c r="F116" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC418',N'Lập và phân tích báo cáo tài chính','3',N'AC316',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>248</v>
       </c>
@@ -6235,8 +6706,12 @@
       <c r="F117" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('FN212',N'Quản trị tài chính doanh nghiệp 1','3',N'FN211D hoặc FN211',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>249</v>
       </c>
@@ -6255,8 +6730,12 @@
       <c r="F118" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('FN221',N'Tài chính công','2',N'FN201A hoặc FN201',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>250</v>
       </c>
@@ -6275,8 +6754,12 @@
       <c r="F119" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('FN224',N'Thuế','3',N'FN221',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>251</v>
       </c>
@@ -6295,8 +6778,12 @@
       <c r="F120" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC344',N'Phân tích hoạt động kinh doanh','2',N'AC210 hoặc AC212',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>252</v>
       </c>
@@ -6315,8 +6802,12 @@
       <c r="F121" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('SC201',N'Kỹ năng giao tiếp và thuyết trình','2',N'36 tín chỉ',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>253</v>
       </c>
@@ -6335,8 +6826,12 @@
       <c r="F122" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('SB203',N'Kỹ năng  đàm phán trong kinh doanh','2',N'50 tín chỉ',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>255</v>
       </c>
@@ -6353,8 +6848,12 @@
       <c r="F123" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('EC103',N'Lịch sử các học thuyết kinh tế','2',N'',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>254</v>
       </c>
@@ -6373,8 +6872,12 @@
       <c r="F124" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('EC314',N'Kinh tế quốc tế','2',N'EC204,AC205',N'27','1.4')</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>256</v>
       </c>
@@ -6391,8 +6894,12 @@
       <c r="F125" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('TT499',N'Thực tập tốt nghiêp','3',N'&gt;=112 tín chỉ',N'','0.5')</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>257</v>
       </c>
@@ -6411,8 +6918,12 @@
       <c r="F126" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC499',N'KLTN ngành Kế toán','6',N'&gt;=124 tín chỉ,AC317,TT499',N'90','3')</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>258</v>
       </c>
@@ -6431,8 +6942,12 @@
       <c r="F127" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('EC490',N'CĐTN: Kinh tế học','3',N'&gt;=124 tín chỉ,TT499',N'45','2')</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>259</v>
       </c>
@@ -6451,8 +6966,12 @@
       <c r="F128" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('AC490',N'CĐTN ngành Kế toán','3',N'&gt;=124 tín chỉ ,Ac317,TT499',N'45','2')</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>318</v>
       </c>
@@ -6471,8 +6990,12 @@
       <c r="F129" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('MA236',N'Thống kê du lịch','3',N'MA100, CS101',N'27LT+36TH','1.6')</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>321</v>
       </c>
@@ -6491,8 +7014,12 @@
       <c r="F130" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO AppSubjects VALUES('SM310',N'Phương pháp nghiên cứu khoa học trong du lịch','3',N'72 tín chỉ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>324</v>
       </c>
@@ -6511,8 +7038,12 @@
       <c r="F131" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="str">
+        <f t="shared" ref="G131:G194" si="2">"INSERT INTO AppSubjects VALUES('"&amp;A131&amp;"',N'"&amp;B131&amp;"','"&amp;C131&amp;"',N'"&amp;D131&amp;"',N'"&amp;E131&amp;"','"&amp;F131&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('IS386',N'Ứng dụng thương mại điện tử trong du lịch','3',N'100 tín chỉ',N'27LT+36BT','1.8')</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>328</v>
       </c>
@@ -6531,8 +7062,12 @@
       <c r="F132" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('EC200',N'  Kinh tế vĩ mô và vi mô ','3',N'EC101 ',N'36LT+18BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>336</v>
       </c>
@@ -6551,8 +7086,12 @@
       <c r="F133" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AC201 ',N' Nguyên lý kế toán ','3',N'40 tín chỉ ',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>338</v>
       </c>
@@ -6571,8 +7110,12 @@
       <c r="F134" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('FN214  ',N'Quản trị tài chính trong du lịch ','3',N' ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>340</v>
       </c>
@@ -6591,8 +7134,12 @@
       <c r="F135" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA102  ',N'Quản trị học đại cương ','3',N' ',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -6611,8 +7158,12 @@
       <c r="F136" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('MK202 ',N'Marketing căn bản  ','3',N'EC101',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>348</v>
       </c>
@@ -6631,8 +7182,12 @@
       <c r="F137" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('VC208  ',N'Cơ sở văn hóa Việt Nam ','3',N'  ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>350</v>
       </c>
@@ -6651,8 +7206,12 @@
       <c r="F138" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('PS210 ',N' Tâm lí học du lịch ','3',N'36 tín chỉ ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>352</v>
       </c>
@@ -6671,8 +7230,12 @@
       <c r="F139" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA217 ',N' Quản trị nguồn nhân lực trong du lịch ','3',N'TR111 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>354</v>
       </c>
@@ -6691,8 +7254,12 @@
       <c r="F140" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA330',N'  Quản trị chiến lược trong kinh doanh du lịch ','3',N'BA102 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>355</v>
       </c>
@@ -6711,8 +7278,12 @@
       <c r="F141" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('MK338',N'Marketing du lịch ','3',N'MK202 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>345</v>
       </c>
@@ -6731,8 +7302,12 @@
       <c r="F142" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR111 ',N'Nhập môn du lịch ','3',N'  ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>358</v>
       </c>
@@ -6751,8 +7326,12 @@
       <c r="F143" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR231 ',N'Pháp luật trong kinh doanh du lịch ','2',N'SH131 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>361</v>
       </c>
@@ -6771,8 +7350,12 @@
       <c r="F144" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR282 ',N'Kiến tập ','4',N'36 tín chỉ ',N'30LT+60TH ','2.5')</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>364</v>
       </c>
@@ -6791,8 +7374,12 @@
       <c r="F145" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR315 ',N'Văn hóa du lịch ','3',N' ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>366</v>
       </c>
@@ -6811,8 +7398,12 @@
       <c r="F146" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA236 ',N'Quản trị điểm đến du lich ','3',N'TR111 ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>369</v>
       </c>
@@ -6831,8 +7422,12 @@
       <c r="F147" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA332 ',N'Quản trị kinh doanh lữ hành ','3',N' ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>371</v>
       </c>
@@ -6851,8 +7446,12 @@
       <c r="F148" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA335 ',N'Quản trị chuỗi cung ứng trong kinh doanh lữ hành','3',N' ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>373</v>
       </c>
@@ -6871,8 +7470,12 @@
       <c r="F149" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TG200 ',N'Địa lí du lịch ','3',N'TR111 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>375</v>
       </c>
@@ -6891,8 +7494,12 @@
       <c r="F150" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TG210 ',N'Thiết kế chương trình du lịch ','3',N'TG200 ',N'45 (LT+BT) ','2.5')</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>377</v>
       </c>
@@ -6911,8 +7518,12 @@
       <c r="F151" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TG211 ',N'Điều hành chương trình du lịch ','3',N'TG210 ',N'45 (LT+TH) ','2.5')</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>380</v>
       </c>
@@ -6931,8 +7542,12 @@
       <c r="F152" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TG222 ',N'Hướng dẫn du lịch ','3',N'TG211 ',N'45 (LT+TH) ','2.5')</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>382</v>
       </c>
@@ -6951,8 +7566,12 @@
       <c r="F153" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA333 ',N'Quản trị kinh doanh khách sạn ','3',N'BA102 ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>384</v>
       </c>
@@ -6971,8 +7590,12 @@
       <c r="F154" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA334 ',N'Quản trị kinh doanh nhà hàng ','3',N'BA102 ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>386</v>
       </c>
@@ -6991,8 +7614,12 @@
       <c r="F155" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR200 ',N'Quản trị tiền sảnh ','3',N' ',N'15LT+60TH ','2')</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>389</v>
       </c>
@@ -7011,8 +7638,12 @@
       <c r="F156" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR220 ',N'Quản trị chế biến món ăn ','3',N' ',N'15LT+60TH ','2.5')</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>391</v>
       </c>
@@ -7031,8 +7662,12 @@
       <c r="F157" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR201 ',N'Quản trị nghiệp vụ buồng ','3',N' ',N'15LT+60TH ','2.5')</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>393</v>
       </c>
@@ -7051,8 +7686,12 @@
       <c r="F158" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR202 ',N'Quản trị nghiệp vụ bàn ','3',N' ',N'15LT+60TH ','2')</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>395</v>
       </c>
@@ -7071,8 +7710,12 @@
       <c r="F159" s="7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR203 ',N'Quản trị nghiệp vụ bar ','3',N' ',N'15LT+60TH ','2.5')</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>397</v>
       </c>
@@ -7091,8 +7734,12 @@
       <c r="F160" s="7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR233 ',N'Ẩm thực Hàn Quốc ','2',N'  ',N'30','0.8')</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>399</v>
       </c>
@@ -7111,8 +7758,12 @@
       <c r="F161" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR322 ',N'Hệ thống di tích và danh thắng Việt Nam ','3',N'TG200 ',N'45 (LT+BT) ','2')</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>401</v>
       </c>
@@ -7131,8 +7782,12 @@
       <c r="F162" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR324 ',N'Nghệ thuật đàm phán trong kinh doanh du lịch ','3',N'  ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>403</v>
       </c>
@@ -7151,8 +7806,12 @@
       <c r="F163" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR341 ',N'Du lịch văn hóa ','3',N' ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>405</v>
       </c>
@@ -7171,8 +7830,12 @@
       <c r="F164" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR342 ',N'Du lịch sinh thái ','3',N' ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>407</v>
       </c>
@@ -7191,8 +7854,12 @@
       <c r="F165" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR344 ',N'Du lịch cộng đồng ','3',N' ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>409</v>
       </c>
@@ -7211,8 +7878,12 @@
       <c r="F166" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('SH111 ',N'Lịch sử văn minh thế giới ','2',N'  ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>411</v>
       </c>
@@ -7231,8 +7902,12 @@
       <c r="F167" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TG221 ',N'Các tôn giáo trên thế giới ','2',N' ',N'30','2')</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>413</v>
       </c>
@@ -7251,8 +7926,12 @@
       <c r="F168" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('PH337 ',N'Sơ cấp cứu trong quá trình phục vụ du lịch ','3',N'  ',N'45 (LT+BT) ','1.8')</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>415</v>
       </c>
@@ -7271,8 +7950,12 @@
       <c r="F169" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('BA344 ',N'Quản trị kinh doanh đồ uống ','3',N'BA334 ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>417</v>
       </c>
@@ -7291,8 +7974,12 @@
       <c r="F170" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('VC212 ',N'Văn hóa ẩm thực Việt Nam ','2',N' ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>419</v>
       </c>
@@ -7311,8 +7998,12 @@
       <c r="F171" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR221 ',N'Nghiệp vụ chế biến bánh và kem ','3',N'  ',N'45 (LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>421</v>
       </c>
@@ -7331,8 +8022,12 @@
       <c r="F172" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR310 ',N'Quản trị sự kiện ','3',N' ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>423</v>
       </c>
@@ -7351,8 +8046,12 @@
       <c r="F173" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR311 ',N'Quản trị dịch vụ bổ sung trong khách sạn ','3',N'BA333 ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>425</v>
       </c>
@@ -7371,8 +8070,12 @@
       <c r="F174" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('HR320 ',N'Quản trị tiệc ','3',N' ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>427</v>
       </c>
@@ -7391,8 +8094,12 @@
       <c r="F175" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('PH313 ',N'Vệ sinh an toàn thực phẩm và dinh dưỡng học ','3',N' ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>429</v>
       </c>
@@ -7411,8 +8118,12 @@
       <c r="F176" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR484 ',N'Thực tập tốt nghiệp  ','4',N'100 tín chỉ ',N' ','1.8')</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>432</v>
       </c>
@@ -7431,8 +8142,12 @@
       <c r="F177" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR499 ',N'KLTN ngành Quản trị dịch vụ du lịch - lữ hành ','6',N'120 tín chỉ ',N'90','3')</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>436</v>
       </c>
@@ -7451,8 +8166,12 @@
       <c r="F178" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR493  ',N'CĐTN: Đánh giá hiệu quả của kinh doanh nhà hàng ','3',N'120 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>438</v>
       </c>
@@ -7471,8 +8190,12 @@
       <c r="F179" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR494 ',N' CĐTN: Đánh giá nguồn nhân lực trong du lịch ','3',N'120 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>441</v>
       </c>
@@ -7491,8 +8214,12 @@
       <c r="F180" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR497 ',N' CĐTN: Đánh giá hiệu quả kinh doanh lữ hành ','3',N'120 tín chỉ  ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>443</v>
       </c>
@@ -7511,8 +8238,12 @@
       <c r="F181" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR494  ',N'CĐTN: Đánh giá nguồn nhân lực trong du lịch ','3',N'120 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>445</v>
       </c>
@@ -7531,8 +8262,12 @@
       <c r="F182" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR495  ',N'CĐTN: Đánh giá chất lượng dịch vụ trong du lịch ','3',N'120 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>447</v>
       </c>
@@ -7551,8 +8286,12 @@
       <c r="F183" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('TR496 ',N'CĐTN: Các điểm đến và điểm tham quan du lịch ở Việt Nam ','3',N'120 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>448</v>
       </c>
@@ -7571,8 +8310,12 @@
       <c r="F184" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN103 ',N'Lý thuyết âm nhạc ','3',N'  ',N'45','1.2')</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>450</v>
       </c>
@@ -7591,8 +8334,12 @@
       <c r="F185" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN201 ',N'Tính năng nhạc cụ ','2',N'  ',N'30','1.2')</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>452</v>
       </c>
@@ -7611,8 +8358,12 @@
       <c r="F186" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN301 ',N'Hòa thanh ','2',N'  ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>454</v>
       </c>
@@ -7631,8 +8382,12 @@
       <c r="F187" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN402 ',N'Hòa thanh ứng dụng ','2',N'AN301 ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>456</v>
       </c>
@@ -7651,8 +8406,12 @@
       <c r="F188" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN303 ',N'Phối khí 1 ','2',N'  ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>458</v>
       </c>
@@ -7671,8 +8430,12 @@
       <c r="F189" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN404 ',N'Phối khí 2 ','2',N'AN303 ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>460</v>
       </c>
@@ -7691,8 +8454,12 @@
       <c r="F190" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN211 ',N'Phân tích âm nhạc  ','3',N'  ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>462</v>
       </c>
@@ -7711,8 +8478,12 @@
       <c r="F191" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN311 ',N'Sáng tác ca khúc 1 ','3',N'  ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>464</v>
       </c>
@@ -7731,8 +8502,12 @@
       <c r="F192" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN412 ',N'Sáng tác ca khúc 2 ','3',N'AN311 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>466</v>
       </c>
@@ -7751,8 +8526,12 @@
       <c r="F193" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN413 ',N'Kỹ thuật Phòng thu ','3',N'  ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>468</v>
       </c>
@@ -7771,8 +8550,12 @@
       <c r="F194" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO AppSubjects VALUES('AN112 ',N'Ký xướng âm 1 ','4',N'  ',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>470</v>
       </c>
@@ -7791,8 +8574,12 @@
       <c r="F195" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="1" t="str">
+        <f t="shared" ref="G195:G258" si="3">"INSERT INTO AppSubjects VALUES('"&amp;A195&amp;"',N'"&amp;B195&amp;"','"&amp;C195&amp;"',N'"&amp;D195&amp;"',N'"&amp;E195&amp;"','"&amp;F195&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('AN212 ',N'Ký xướng âm 2 ','4',N'AN112 ',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>472</v>
       </c>
@@ -7811,8 +8598,12 @@
       <c r="F196" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN122 ',N'Piano cơ bản ','4',N'  ',N'60','1.4')</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>474</v>
       </c>
@@ -7831,8 +8622,12 @@
       <c r="F197" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN223 ',N'Piano ứng dụng 1 ','4',N'AN122 ',N'60','1.4')</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>476</v>
       </c>
@@ -7851,8 +8646,12 @@
       <c r="F198" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN323 ',N'Piano ứng dụng 2 ','4',N'AN223 ',N'60','1.4')</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>478</v>
       </c>
@@ -7871,8 +8670,12 @@
       <c r="F199" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('PS200 ',N'Tâm lý học đại cương ','2',N'36 tín chỉ ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>480</v>
       </c>
@@ -7891,8 +8694,12 @@
       <c r="F200" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AF200 ',N'Mỹ học ','2',N'PS200 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>489</v>
       </c>
@@ -7908,8 +8715,12 @@
       <c r="F201" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN131',N'  Kỹ thuật thanh nhạc 1 ','4',N'',N'60','2')</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>483</v>
       </c>
@@ -7928,8 +8739,12 @@
       <c r="F202" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN232 ',N' Kỹ thuật thanh nhạc 2 ','4',N'AN131 ',N'60','2')</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>492</v>
       </c>
@@ -7948,8 +8763,12 @@
       <c r="F203" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN333',N'  Kỹ thuật thanh nhạc 3 ','4',N'AN232 ',N'60','2')</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>495</v>
       </c>
@@ -7968,8 +8787,12 @@
       <c r="F204" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN434  ',N'Kỹ thuật thanh nhạc 4 ','4',N'AN333 ',N'60','2')</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>485</v>
       </c>
@@ -7985,8 +8808,12 @@
       <c r="F205" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN234 ',N' Thanh nhạc ứng dụng 1 ','4',N'',N'60','1.8')</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>497</v>
       </c>
@@ -8005,8 +8832,12 @@
       <c r="F206" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN235  ',N'Thanh nhạc ứng dụng 2 ','4',N'AN234 ',N'60','1.8')</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>486</v>
       </c>
@@ -8022,8 +8853,12 @@
       <c r="F207" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN141 ',N' Kỹ thuật biểu diễn (vũ đạo) 1 ','4',N'',N'60','1.8')</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>500</v>
       </c>
@@ -8042,8 +8877,12 @@
       <c r="F208" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN242  ',N'Kỹ thuật biểu diễn (vũ đạo) 2 ','4',N'AN141 ',N'60','1.8')</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>487</v>
       </c>
@@ -8059,8 +8898,12 @@
       <c r="F209" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN251 ',N' Thực hành biểu diễn 1 ','4',N'',N'60','2')</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>503</v>
       </c>
@@ -8079,8 +8922,12 @@
       <c r="F210" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AN352 ',N' Thực hành biểu diễn 2 ','4',N'AN251 ',N'60','2')</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>504</v>
       </c>
@@ -8099,8 +8946,12 @@
       <c r="F211" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC210 ',N'Kế toán doanh nghiệp  ','3',N'AC201 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>506</v>
       </c>
@@ -8119,8 +8970,12 @@
       <c r="F212" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC211 ',N'Kế toán tài chính 1 ','3',N'AC201 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>509</v>
       </c>
@@ -8139,8 +8994,12 @@
       <c r="F213" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC212 ',N'Kế toán tài chính 2 ','3',N'AC211 ',N'40LT+10TH ','1.5')</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>512</v>
       </c>
@@ -8159,8 +9018,12 @@
       <c r="F214" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC232 ',N'Kế toán quốc tế 1 ','3',N'AC211 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>514</v>
       </c>
@@ -8179,8 +9042,12 @@
       <c r="F215" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC314 ',N'Kế toán máy ','2',N'AC212 ',N'15LT+30BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>517</v>
       </c>
@@ -8199,8 +9066,12 @@
       <c r="F216" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC315 ',N'Kế toán công ','2',N'AC211 hoặc AC201 ',N'24LT+12BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>521</v>
       </c>
@@ -8219,8 +9090,12 @@
       <c r="F217" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC316 ',N'Kế toán tài chính 3 ','3',N'AC212 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>523</v>
       </c>
@@ -8239,8 +9114,12 @@
       <c r="F218" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC317 ',N'Tổ chức hạch toán kế toán  ','3',N'AC316 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>525</v>
       </c>
@@ -8259,8 +9138,12 @@
       <c r="F219" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC322 ',N'Kế toán ngân hàng   ','3',N'AC210 hoặc AC212, BK201 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>528</v>
       </c>
@@ -8279,8 +9162,12 @@
       <c r="F220" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC332 ',N'Kế toán quốc tế 2 ','3',N'AC231 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>531</v>
       </c>
@@ -8299,8 +9186,12 @@
       <c r="F221" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC335 ',N'Kế toán công ty ','2',N'AC212 ',N'24LT+12BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>533</v>
       </c>
@@ -8319,8 +9210,12 @@
       <c r="F222" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC341 ',N'Kế toán quản trị  ','3',N'AC212 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>535</v>
       </c>
@@ -8339,8 +9234,12 @@
       <c r="F223" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC344 ',N'Phân tích hoạt động kinh doanh ','2',N'AC210 hoặc AC212 ',N'24LT+12BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>538</v>
       </c>
@@ -8359,8 +9258,12 @@
       <c r="F224" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC362 ',N'Lý thuyết kiểm toán  ','2',N'AC212 ',N'24LT+12BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>540</v>
       </c>
@@ -8379,8 +9282,12 @@
       <c r="F225" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC364 ',N'Kiểm toán báo cáo tài chính 1 ','3',N'AC362, AC317 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>543</v>
       </c>
@@ -8399,8 +9306,12 @@
       <c r="F226" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC365 ',N'Kiểm toán báo cáo tài chính 2 ','3',N'AC364 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>545</v>
       </c>
@@ -8419,8 +9330,12 @@
       <c r="F227" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC368 ',N'Kiểm soát trong quản lý ','3',N'AC364 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>547</v>
       </c>
@@ -8439,8 +9354,12 @@
       <c r="F228" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC418 ',N'Lập và phân tích báo cáo tài chính  ','3',N'AC316 ',N'40LT+10BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>549</v>
       </c>
@@ -8459,8 +9378,12 @@
       <c r="F229" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC481 ',N'CĐTN Kế toán tài chính ','3',N'124 tín chỉ, AC317, TT499 ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>552</v>
       </c>
@@ -8479,8 +9402,12 @@
       <c r="F230" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC482 ',N'CĐTN Kế toán quản trị ','3',N'124 tín chỉ, AC317,T T4   ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>555</v>
       </c>
@@ -8499,8 +9426,12 @@
       <c r="F231" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AC499 ',N' KLTN ngành Kế toán  ','6',N'124 tín chỉ, AC317, TT4   ',N'90','3')</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>558</v>
       </c>
@@ -8516,8 +9447,12 @@
       <c r="F232" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD206 ',N'Ẩm thực Việt Nam ','3',N'',N'30LT+30TH ','1.8')</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>561</v>
       </c>
@@ -8536,8 +9471,12 @@
       <c r="F233" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD205 ',N'Kỹ năng soạn thảo văn bản (MS Office)  ','3',N'CS101 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>564</v>
       </c>
@@ -8556,8 +9495,12 @@
       <c r="F234" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD212 ',N'Phương pháp hùng biện và các thủ thuật tranh biện ','3',N'36 tín chỉ ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>566</v>
       </c>
@@ -8576,8 +9519,12 @@
       <c r="F235" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD213 ',N'Hát - Nhạc ','3',N'36 tín chỉ ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>568</v>
       </c>
@@ -8596,8 +9543,12 @@
       <c r="F236" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD214 ',N'Nâng cao chất lượng giọng hát ','3',N'AD213 ',N'45','1.8')</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>570</v>
       </c>
@@ -8616,8 +9567,12 @@
       <c r="F237" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD215 ',N'Ứng dụng Power Point ','3',N' ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>572</v>
       </c>
@@ -8636,8 +9591,12 @@
       <c r="F238" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD216 ',N'Tâm lý và kỹ năng giao tiếp với người cao tuổi ','3',N'50 tín chỉ ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>575</v>
       </c>
@@ -8653,8 +9612,12 @@
       <c r="F239" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD250 ',N'Dinh dưỡng và tiết chế ','3',N'',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>577</v>
       </c>
@@ -8670,8 +9633,12 @@
       <c r="F240" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD312 ',N'Bóng đá ','4',N'',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>579</v>
       </c>
@@ -8690,8 +9657,12 @@
       <c r="F241" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD313 ',N'Bóng đá nâng cao ','4',N'AD312 ',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>581</v>
       </c>
@@ -8707,8 +9678,12 @@
       <c r="F242" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD314 ',N'Nhảy hiện đại ','4',N'',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>583</v>
       </c>
@@ -8727,8 +9702,12 @@
       <c r="F243" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD315 ',N'Nhảy hiện đại nâng cao ','4',N'AD314 ',N'60','1.5')</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>585</v>
       </c>
@@ -8747,8 +9726,12 @@
       <c r="F244" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AD331 ',N'Khởi sự kinh doanh  ','3',N'60 tín chỉ ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>588</v>
       </c>
@@ -8767,8 +9750,12 @@
       <c r="F245" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE212 ',N'Đất nước học Anh, Mỹ ','3',N'GE373 ',N'45','1.7')</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>591</v>
       </c>
@@ -8787,8 +9774,12 @@
       <c r="F246" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE300 ',N'Lý thuyết dịch ','2',N'EL321 ',N'30','1.7')</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>594</v>
       </c>
@@ -8807,8 +9798,12 @@
       <c r="F247" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE301 ',N'Dịch viết 1 ','3',N'AE300 ',N'45','1.7')</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>596</v>
       </c>
@@ -8827,8 +9822,12 @@
       <c r="F248" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE312 ',N'Văn học Anh Mỹ ','3',N'GE373 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>598</v>
       </c>
@@ -8847,8 +9846,12 @@
       <c r="F249" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE321 ',N'Thư tín thương mại ','2',N'ES213, ES223, ES233, ES243 ',N'15LT+30TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>602</v>
       </c>
@@ -8867,8 +9870,12 @@
       <c r="F250" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE350 ',N'Tư duy phản biện ','2',N'ES213, ES223, ES233, ES243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>604</v>
       </c>
@@ -8887,8 +9894,12 @@
       <c r="F251" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE402 ',N'Dịch viết 2 ','3',N'AE301 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>606</v>
       </c>
@@ -8907,8 +9918,12 @@
       <c r="F252" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE405 ',N'Dịch nói 1 ','3',N'AE300 ',N'45','1.7')</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>608</v>
       </c>
@@ -8927,8 +9942,12 @@
       <c r="F253" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE406 ',N'Dịch nói 2 ','3',N'AE405 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>610</v>
       </c>
@@ -8947,8 +9966,12 @@
       <c r="F254" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE415 ',N'Giao tiếp giữa các nền văn hoá  ','2',N'VC200, GE373 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>613</v>
       </c>
@@ -8967,8 +9990,12 @@
       <c r="F255" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE417 ',N'Ngôn ngữ và văn hoá ','3',N'AE415 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>615</v>
       </c>
@@ -8987,8 +10014,12 @@
       <c r="F256" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE425',N'Tiếng Anh kinh tế ','3',N'GE373 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>617</v>
       </c>
@@ -9007,8 +10038,12 @@
       <c r="F257" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('AE430',N'Tiếng Anh toàn cầu ','2',N'GE373 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>619</v>
       </c>
@@ -9027,8 +10062,12 @@
       <c r="F258" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO AppSubjects VALUES('EC327 ',N'Kinh tế y tế ','3',N'EC101 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>621</v>
       </c>
@@ -9047,8 +10086,12 @@
       <c r="F259" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="1" t="str">
+        <f t="shared" ref="G259:G322" si="4">"INSERT INTO AppSubjects VALUES('"&amp;A259&amp;"',N'"&amp;B259&amp;"','"&amp;C259&amp;"',N'"&amp;D259&amp;"',N'"&amp;E259&amp;"','"&amp;F259&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('EC336 ',N'Kinh tế quốc tế ','3',N'EC101 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>623</v>
       </c>
@@ -9067,8 +10110,12 @@
       <c r="F260" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EJ331 ',N'Giáo dục Nhật Bản ','2',N'GJ344 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>626</v>
       </c>
@@ -9087,8 +10134,12 @@
       <c r="F261" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EK211 ',N'Kinh tế Hàn Quốc ','2',N'50 tín chỉ ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>593</v>
       </c>
@@ -9107,8 +10158,12 @@
       <c r="F262" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EL321 ',N'Ngữ pháp ','3',N'ES212, ES222, ES232, ES242 ',N'45','1.7')</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>630</v>
       </c>
@@ -9127,8 +10182,12 @@
       <c r="F263" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EL322 ',N'Ngữ âm và âm vị học ','2',N'ES212, ES222, ES232, ES242 ',N'30','1.7')</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>632</v>
       </c>
@@ -9147,8 +10206,12 @@
       <c r="F264" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EL325 ',N'Ngữ nghĩa học từ vựng ','2',N'ES212, ES222, ES232, ES242 ',N'30','1.7')</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>634</v>
       </c>
@@ -9167,8 +10230,12 @@
       <c r="F265" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EL401 ',N'Ngôn ngữ học đối chiếu ','2',N'VL100, EL321, EL322, EL325 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>637</v>
       </c>
@@ -9187,8 +10254,12 @@
       <c r="F266" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EL425 ',N'Ngữ dụng ','2',N'VL100, GE373 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>640</v>
       </c>
@@ -9207,8 +10278,12 @@
       <c r="F267" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EL426 ',N'Phân tích diễn ngôn ','2',N'VL100, GE373 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>642</v>
       </c>
@@ -9227,8 +10302,12 @@
       <c r="F268" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EL427 ',N'Cú pháp - hình thái học ','2',N'EL321 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>644</v>
       </c>
@@ -9247,8 +10326,12 @@
       <c r="F269" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('EM315 ',N'Nhập môn Marketing  ','3',N'AE425 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>647</v>
       </c>
@@ -9264,8 +10347,12 @@
       <c r="F270" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES120 ',N'Phát âm ','2',N'',N'15LT+30TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>649</v>
       </c>
@@ -9281,8 +10368,12 @@
       <c r="F271" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES130 ',N'Thực hành từ vựng và cấu trúc tiếng Anh 1 ','2',N'',N'15LT+30TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>651</v>
       </c>
@@ -9301,8 +10392,12 @@
       <c r="F272" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES140 ',N'Thực hành từ vựng và cấu trúc tiếng Anh 2 ','2',N'ES130 ',N'15LT+30TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>653</v>
       </c>
@@ -9321,8 +10416,12 @@
       <c r="F273" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES211 ',N'Kỹ năng Nghe tiếng Anh 1 ','2',N'GE173 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>656</v>
       </c>
@@ -9341,8 +10440,12 @@
       <c r="F274" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES212 ',N'Kỹ năng Nghe tiếng Anh 2 ','2',N'ES211 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>658</v>
       </c>
@@ -9361,8 +10464,12 @@
       <c r="F275" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES213 ',N'Kỹ năng Nghe tiếng Anh 3 ','2',N'ES212 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>660</v>
       </c>
@@ -9381,8 +10488,12 @@
       <c r="F276" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES221 ',N'Kỹ năng Nói tiếng Anh 1 ','2',N'GE173 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>662</v>
       </c>
@@ -9401,8 +10512,12 @@
       <c r="F277" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES222 ',N'Kỹ năng Nói tiếng Anh 2 ','2',N'ES221 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>664</v>
       </c>
@@ -9421,8 +10536,12 @@
       <c r="F278" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES223 ',N'Kỹ năng Nói tiếng Anh 3 ','2',N'ES222 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>666</v>
       </c>
@@ -9441,8 +10560,12 @@
       <c r="F279" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES231 ',N'Kỹ năng Đọc tiếng Anh 1 ','2',N'GE173 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>668</v>
       </c>
@@ -9461,8 +10584,12 @@
       <c r="F280" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES232 ',N'Kỹ năng Đọc tiếng Anh 2 ','2',N'ES231 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>670</v>
       </c>
@@ -9481,8 +10608,12 @@
       <c r="F281" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES233 ',N'Kỹ năng Đọc tiếng Anh 3 ','2',N'ES232 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>672</v>
       </c>
@@ -9501,8 +10632,12 @@
       <c r="F282" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES241 ',N'Kỹ năng Viết tiếng Anh 1 ','2',N'GE173 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>674</v>
       </c>
@@ -9521,8 +10656,12 @@
       <c r="F283" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES242 ',N'Kỹ năng Viết tiếng Anh 2 ','2',N'ES241 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>676</v>
       </c>
@@ -9541,8 +10680,12 @@
       <c r="F284" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('ES243 ',N'Kỹ năng Viết tiếng Anh 3 ','2',N'ES242 ',N'15LT+30TH ','1.7')</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>678</v>
       </c>
@@ -9558,8 +10701,12 @@
       <c r="F285" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FA111 ',N'Nhiếp ảnh ','3',N'',N'45','2')</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>680</v>
       </c>
@@ -9575,8 +10722,12 @@
       <c r="F286" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FA121 ',N'Hình họa ','3',N'',N'45','2')</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>682</v>
       </c>
@@ -9595,8 +10746,12 @@
       <c r="F287" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FA131 ',N'Bố cục màu ','2',N'FA121 ',N'30','2')</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>684</v>
       </c>
@@ -9615,8 +10770,12 @@
       <c r="F288" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FA221',N'Cơ sở tạo hình ','2',N'FA121 ',N'30','1.8')</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>329</v>
       </c>
@@ -9632,8 +10791,12 @@
       <c r="F289" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN214',N'Quản trị tài chính trong du lịch ','3',N'',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>689</v>
       </c>
@@ -9652,8 +10815,12 @@
       <c r="F290" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN216',N'Quản trị tài chính  ','3',N'FN211 ',N'45','1.3')</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>691</v>
       </c>
@@ -9672,8 +10839,12 @@
       <c r="F291" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN222 ',N'Tài chính công ','3',N'FN201 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>694</v>
       </c>
@@ -9692,8 +10863,12 @@
       <c r="F292" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN224 ',N'Thuế ','3',N'FN222 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>696</v>
       </c>
@@ -9712,8 +10887,12 @@
       <c r="F293" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN261 ',N'Tài chính quốc tế ','3',N'FN201 ',N'36LT+18BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>698</v>
       </c>
@@ -9732,8 +10911,12 @@
       <c r="F294" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN313 ',N'Quản trị tài chính doanh nghiệp 2 ','3',N'FN212 ',N'36LT+18BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>701</v>
       </c>
@@ -9752,8 +10935,12 @@
       <c r="F295" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN317 ',N'Công cụ tài chính phái sinh ','2',N'FN201 ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>703</v>
       </c>
@@ -9772,8 +10959,12 @@
       <c r="F296" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN331 ',N'Thị trường chứng khoán ','3',N'FN211 ',N'30LT+30BT ','1.8')</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>706</v>
       </c>
@@ -9792,8 +10983,12 @@
       <c r="F297" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN333 ',N'Quản trị rủi ro tài chính ','3',N'FN261 ',N'36LT+18BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>708</v>
       </c>
@@ -9812,8 +11007,12 @@
       <c r="F298" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN334 ',N'Đầu tư chứng khoán ','2',N'48 tín chỉ ',N'15LT+30TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>710</v>
       </c>
@@ -9832,8 +11031,12 @@
       <c r="F299" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN335 ',N'Bảo hiểm ','3',N'FN211 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>712</v>
       </c>
@@ -9852,8 +11055,12 @@
       <c r="F300" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN418 ',N'Phân tích tài chính doanh nghiệp ','2',N'FN212 ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>714</v>
       </c>
@@ -9872,8 +11079,12 @@
       <c r="F301" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN436 ',N'Định giá tài sản  ','3',N'FN313 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>716</v>
       </c>
@@ -9892,8 +11103,12 @@
       <c r="F302" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN438 ',N'Đầu tư tài chính ','3',N'FN313, FN331 ',N'30LT+30BT ','1.8')</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>719</v>
       </c>
@@ -9912,8 +11127,12 @@
       <c r="F303" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN481 ',N'CĐTN ngành Tài chính - Ngân hàng ','3',N'124 tín chỉ, TT4   ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>722</v>
       </c>
@@ -9932,8 +11151,12 @@
       <c r="F304" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN482 ',N'CĐTN chuyên ngành Tài chính ','3',N'124 tín chỉ, FN313, TT4   ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>725</v>
       </c>
@@ -9952,8 +11175,12 @@
       <c r="F305" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN491 ',N'CĐTN ngành Tài chính - Ngân hàng ','3',N'124 tín chỉ, TT4   ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>726</v>
       </c>
@@ -9972,8 +11199,12 @@
       <c r="F306" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('FN499 ',N'KLTN chuyên ngành Tài chính  ','6',N'124 tín chỉ, FN313,TT4   ',N'90','3')</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>729</v>
       </c>
@@ -9989,8 +11220,12 @@
       <c r="F307" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('HR203',N'Quản trị nghiệp vụ bar','3',N'',N'15LT+60TH ','2.5')</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>731</v>
       </c>
@@ -10006,8 +11241,12 @@
       <c r="F308" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('HR220',N'Quản trị chế biến món ăn ','3',N'',N'15LT+60TH ','2.5')</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>732</v>
       </c>
@@ -10023,8 +11262,12 @@
       <c r="F309" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('HR221',N'Nghiệp vụ chế biến bánh và kem ','3',N'',N'45 (LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>733</v>
       </c>
@@ -10040,8 +11283,12 @@
       <c r="F310" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('HR310',N'Quản trị sự kiện ','3',N'',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>734</v>
       </c>
@@ -10060,8 +11307,12 @@
       <c r="F311" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('HR311',N'Quản trị dịch vụ bổ sung trong khách sạn ','3',N'BA333 ',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>735</v>
       </c>
@@ -10077,8 +11328,12 @@
       <c r="F312" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('HR320',N'Quản trị tiệc ','3',N'',N'45 (LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>736</v>
       </c>
@@ -10097,8 +11352,12 @@
       <c r="F313" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IJ301 ',N'Tiếng Nhật IT ','3',N'GJ243≥5, IS203≥5 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>739</v>
       </c>
@@ -10117,8 +11376,12 @@
       <c r="F314" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IM203 ',N'Ứng dụng Excel  ','3',N'CS101 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>741</v>
       </c>
@@ -10134,8 +11397,12 @@
       <c r="F315" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IM210 ',N'Tin học âm nhạc ','3',N'',N'45(LT+TH) ','1.6')</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>744</v>
       </c>
@@ -10154,8 +11421,12 @@
       <c r="F316" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IN301 ',N'Tin học ứng dụng trong dinh dưỡng tiết ','2',N'IM001 ',N'15LT+30BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>747</v>
       </c>
@@ -10174,8 +11445,12 @@
       <c r="F317" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IR451 ',N'Thực tập chuyên môn ','4',N'110 tín chỉ ',N'60','1.8')</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>750</v>
       </c>
@@ -10194,8 +11469,12 @@
       <c r="F318" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IS203 ',N'Vi tính tiếng Nhật ','3',N'GJ143, CS101 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>753</v>
       </c>
@@ -10214,8 +11493,12 @@
       <c r="F319" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IS222 ',N'Cơ sở dữ liệu  ','3',N'CS121, MA104 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>756</v>
       </c>
@@ -10234,8 +11517,12 @@
       <c r="F320" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IS223 ',N'Cơ sở dữ liệu và khai phá dữ liệu ','3',N'CS121, MA104 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>758</v>
       </c>
@@ -10254,8 +11541,12 @@
       <c r="F321" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IS314 ',N'Hệ thống thông tin ','3',N'IS222 hoặc IS223 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>761</v>
       </c>
@@ -10274,8 +11565,12 @@
       <c r="F322" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO AppSubjects VALUES('IS315 ',N'Mô hình hóa quy trình nghiệp vụ ','2',N'IS314 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>764</v>
       </c>
@@ -10294,8 +11589,12 @@
       <c r="F323" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" s="1" t="str">
+        <f t="shared" ref="G323:G386" si="5">"INSERT INTO AppSubjects VALUES('"&amp;A323&amp;"',N'"&amp;B323&amp;"','"&amp;C323&amp;"',N'"&amp;D323&amp;"',N'"&amp;E323&amp;"','"&amp;F323&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('IS317 ',N'Hạ tầng công nghệ thông tin ','2',N'IS314 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>766</v>
       </c>
@@ -10314,8 +11613,12 @@
       <c r="F324" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS322 ',N'Hệ quản trị cơ sở dữ liệu ','3',N'IS222 hoặc IS223 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>768</v>
       </c>
@@ -10334,8 +11637,12 @@
       <c r="F325" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS324 ',N'Phân tích dữ liệu ','3',N'IS322 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>770</v>
       </c>
@@ -10354,8 +11661,12 @@
       <c r="F326" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS325 ',N'Cơ sở dữ liệu phân tán ','2',N'IS222, NW212 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>773</v>
       </c>
@@ -10374,8 +11685,12 @@
       <c r="F327" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS326 ',N'Khai phá dữ liệu ','3',N'IS322 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>775</v>
       </c>
@@ -10394,8 +11709,12 @@
       <c r="F328" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS327 ',N'Kho dữ liệu ','3',N'IS322 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>777</v>
       </c>
@@ -10414,8 +11733,12 @@
       <c r="F329" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS330 ',N'Dữ liệu lớn ','2',N'IS222 hoặc IS223 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>780</v>
       </c>
@@ -10434,8 +11757,12 @@
       <c r="F330" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS332 ',N'Phân tích thiết kế hướng đối tượng ','3',N'CS122, IS222 hoặc IS223 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>783</v>
       </c>
@@ -10454,8 +11781,12 @@
       <c r="F331" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS333 ',N'Phân tích thiết kế hệ thống thông tin ','2',N'IS222 hoặc IS223 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>785</v>
       </c>
@@ -10474,8 +11805,12 @@
       <c r="F332" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS334 ',N'Quản lý dự án hệ thống thông tin  ','3',N'IS314 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>787</v>
       </c>
@@ -10494,8 +11829,12 @@
       <c r="F333" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS335 ',N'Phát triển ứng dụng doanh nghiệp ','3',N'SE302 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>790</v>
       </c>
@@ -10514,8 +11853,12 @@
       <c r="F334" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS337 ',N'Xây dựng ứng dụng thương mại điện tử ','3',N'IS314 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>792</v>
       </c>
@@ -10534,8 +11877,12 @@
       <c r="F335" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS338 ',N'Hệ thống thông tin di động ','3',N'IS314 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>794</v>
       </c>
@@ -10554,8 +11901,12 @@
       <c r="F336" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS345 ',N'An toàn thông tin ','3',N'CF231 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>797</v>
       </c>
@@ -10574,8 +11925,12 @@
       <c r="F337" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS382 ',N'Công nghệ thông tin trong doanh nghiệp ','2',N'100 tín chỉ, BA102, MK202 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>800</v>
       </c>
@@ -10594,8 +11949,12 @@
       <c r="F338" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS383 ',N'Hệ thống thông tin nâng cao ','2',N'IS314 ',N'18LT+24BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>802</v>
       </c>
@@ -10614,8 +11973,12 @@
       <c r="F339" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS384 ',N'Một số vấn đề hiện đại về hệ thống thông tin','3',N'IS383 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>803</v>
       </c>
@@ -10634,8 +11997,12 @@
       <c r="F340" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G340" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS386 ',N'Ứng dụng thương mại điện tử trong du lịch ','3',N'100 tín chỉ ',N'27LT+36BT ','1.8')</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>806</v>
       </c>
@@ -10654,8 +12021,12 @@
       <c r="F341" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G341" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS424 ',N'Lập trình cơ sở dữ liệu ','3',N'IS322 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>808</v>
       </c>
@@ -10674,8 +12045,12 @@
       <c r="F342" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS430 ',N'Công nghệ Blockchain ','3',N'IS314, CF212 ',N'36LT+18TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>813</v>
       </c>
@@ -10694,8 +12069,12 @@
       <c r="F343" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G343" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IS499',N'KLTN ngành Hệ thống thông tin  ','6',N'120 tín chỉ ',N'30LT+120TH ','3')</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>815</v>
       </c>
@@ -10714,8 +12093,12 @@
       <c r="F344" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G344" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IT320',N'Lập trình Python ','3',N'MA120, CF212 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>819</v>
       </c>
@@ -10734,8 +12117,12 @@
       <c r="F345" s="7">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G345" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IT332',N'Internet of Things ','2',N'SE302 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>821</v>
       </c>
@@ -10754,8 +12141,12 @@
       <c r="F346" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G346" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IT333',N'Công nghệ Web ','3',N'NW212 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>824</v>
       </c>
@@ -10774,8 +12165,12 @@
       <c r="F347" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G347" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IT380 ',N'Dự án Công nghệ thông tin ','2',N'IS314 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>826</v>
       </c>
@@ -10794,8 +12189,12 @@
       <c r="F348" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G348" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('IT499 ',N'KLTN ngành CNTT ','6',N'120 tín chỉ  ',N'30LT+120TH ','3')</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>828</v>
       </c>
@@ -10814,8 +12213,12 @@
       <c r="F349" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G349" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG214 ',N'Logistics nội đô ','3',N'LG201 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>831</v>
       </c>
@@ -10834,8 +12237,12 @@
       <c r="F350" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G350" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG215 ',N'Logistics xanh ','3',N'LG201 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>833</v>
       </c>
@@ -10854,8 +12261,12 @@
       <c r="F351" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G351" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG217 ',N'Quản lý các hệ thống logistics ','3',N'LG201 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>835</v>
       </c>
@@ -10874,8 +12285,12 @@
       <c r="F352" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG219 ',N'Quản lý logistics ','3',N'LG201 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>837</v>
       </c>
@@ -10894,8 +12309,12 @@
       <c r="F353" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG301 ',N'Chiến lược logistics và quản lý cung ứng ','3',N'LG219, SC218 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>840</v>
       </c>
@@ -10914,8 +12333,12 @@
       <c r="F354" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG302 ',N'Logistics quốc tế và chuỗi cung ứng toàn cầu','3',N'LG201 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>842</v>
       </c>
@@ -10934,8 +12357,12 @@
       <c r="F355" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG311 ',N'Marketing dịch vụ logistics ','3',N'MK201, LG201 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>845</v>
       </c>
@@ -10954,8 +12381,12 @@
       <c r="F356" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG330 ',N'Quản lý kho hàng ','3',N'SC218 ',N'36LT+18BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>848</v>
       </c>
@@ -10974,8 +12405,12 @@
       <c r="F357" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG491 ',N'CĐTN1: Logistics ','3',N'124 tín chỉ, LG302, TT4   ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>851</v>
       </c>
@@ -10994,8 +12429,12 @@
       <c r="F358" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('LG499 ',N'Khóa luận tốt nghiệp ','6',N'124 tín chỉ, LG302, TT4   ',N'90','3')</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>853</v>
       </c>
@@ -11014,8 +12453,12 @@
       <c r="F359" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA236 ',N'Thống kê du lịch ','3',N'MA100, CS101 ',N'27LT+36TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>857</v>
       </c>
@@ -11034,8 +12477,12 @@
       <c r="F360" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA241 ',N' Toán tài chính ','2',N'MA142 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>860</v>
       </c>
@@ -11054,8 +12501,12 @@
       <c r="F361" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA300 ',N'Toán chuyên ngành truyền thông dữ liệu ','3',N'MA231 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>863</v>
       </c>
@@ -11074,8 +12525,12 @@
       <c r="F362" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA313 ',N'Hàm biến phức ','2',N'MA111 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>866</v>
       </c>
@@ -11094,8 +12549,12 @@
       <c r="F363" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA323 ',N'Số học thuật toán ','2',N'MA104 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>869</v>
       </c>
@@ -11114,8 +12573,12 @@
       <c r="F364" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA340 ',N'Giải tích số ','3',N'MA111 ',N'36LT+18BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>871</v>
       </c>
@@ -11134,8 +12597,12 @@
       <c r="F365" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA342 ',N'Giải tích lồi ','3',N'MA111 ',N'36LT+18BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>873</v>
       </c>
@@ -11154,8 +12621,12 @@
       <c r="F366" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA350 ',N'Mô hình Toán học ','3',N'MA110, MA120 ',N'36LT+18BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>876</v>
       </c>
@@ -11174,8 +12645,12 @@
       <c r="F367" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA431 ',N'Phân tích số liệu bằng STATA ','2',N'MA233, PH321 ',N'30(LT+TH) ','1.6')</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>880</v>
       </c>
@@ -11194,8 +12669,12 @@
       <c r="F368" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA490 ',N'CĐTN Toán ứng dụng trong tin học 1 ','3',N'110 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>882</v>
       </c>
@@ -11214,8 +12693,12 @@
       <c r="F369" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G369" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA491 ',N'CĐTN Toán ứng dụng trong tin học 2 ','3',N'110 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>884</v>
       </c>
@@ -11234,8 +12717,12 @@
       <c r="F370" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA492 ',N'CĐTN Toán ứng dụng trong kinh tế 1 ','3',N'110 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>886</v>
       </c>
@@ -11254,8 +12741,12 @@
       <c r="F371" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA493 ',N'CĐTN Toán ứng dụng trong kinh tế 2 ','3',N'110 tín chỉ ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>888</v>
       </c>
@@ -11274,8 +12765,12 @@
       <c r="F372" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MA499 ',N'KLTN ngành Toán ứng dụng ','6',N'110 tín chỉ ',N'90','3')</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>890</v>
       </c>
@@ -11294,8 +12789,12 @@
       <c r="F373" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MC312',N'Quảng cáo và sản xuất phim quảng cáo ','2',N'MD112 ',N'30','2')</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>893</v>
       </c>
@@ -11314,8 +12813,12 @@
       <c r="F374" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MC392',N'Thực tập truyền thông ','2',N'MC311 ',N'30','3')</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>896</v>
       </c>
@@ -11334,8 +12837,12 @@
       <c r="F375" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MC412',N'Xử lý khủng hoảng truyền thông ','3',N'MC311 ',N'45','1.8')</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>898</v>
       </c>
@@ -11354,8 +12861,12 @@
       <c r="F376" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G376" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MC422',N'Quản lý dự án đa phương tiện ','2',N'MC311 ',N'30','2')</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>900</v>
       </c>
@@ -11374,8 +12885,12 @@
       <c r="F377" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G377" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MC492',N'Thực tập tốt nghiệp ','4',N'0 tín chỉ ',N'60','3')</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>903</v>
       </c>
@@ -11394,8 +12909,12 @@
       <c r="F378" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G378" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MC499 ',N'Đồ án tốt nghiệp ','6',N'110 tín chỉ ',N'90','4')</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>892</v>
       </c>
@@ -11414,8 +12933,12 @@
       <c r="F379" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G379" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MD112 ',N'Thiết kế dàn trang tạp chí và báo ','3',N'FA121, FA111 ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>907</v>
       </c>
@@ -11431,8 +12954,12 @@
       <c r="F380" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G380" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MD121 ',N'Phần mềm thiết kế ','3',N'',N'45','2')</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>909</v>
       </c>
@@ -11451,8 +12978,12 @@
       <c r="F381" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G381" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MD131 ',N'Xử lý ảnh ','3',N'FA111 ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>911</v>
       </c>
@@ -11471,8 +13002,12 @@
       <c r="F382" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G382" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MD132 ',N'Dựng hình 3D cơ bản ','3',N'FA121 ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>913</v>
       </c>
@@ -11491,8 +13026,12 @@
       <c r="F383" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G383" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MD211 ',N'Thiết kế hoạt hình 2D ','3',N'FA121 ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>915</v>
       </c>
@@ -11511,8 +13050,12 @@
       <c r="F384" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G384" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('MD212 ',N'Thiết kế nhận diện thương hiệu và quảng ','3',N'FA121 ',N'45','2')</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>796</v>
       </c>
@@ -11531,8 +13074,12 @@
       <c r="F385" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G385" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('CF231 ',N'Lý thuyết thông tin và mã hóa ','2',N'MA231 hoặc MA230 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>919</v>
       </c>
@@ -11551,8 +13098,12 @@
       <c r="F386" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G386" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO AppSubjects VALUES('CF320 ',N'Tín hiệu và hệ thống ','3',N'MA300 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>921</v>
       </c>
@@ -11571,8 +13122,12 @@
       <c r="F387" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G387" s="1" t="str">
+        <f t="shared" ref="G387:G450" si="6">"INSERT INTO AppSubjects VALUES('"&amp;A387&amp;"',N'"&amp;B387&amp;"','"&amp;C387&amp;"',N'"&amp;D387&amp;"',N'"&amp;E387&amp;"','"&amp;F387&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('CF321 ',N'Xử lý tín hiệu số ','3',N'MA300, CF320 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>924</v>
       </c>
@@ -11591,8 +13146,12 @@
       <c r="F388" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G388" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC300 ',N'Mô hình hóa và mô phỏng ','3',N'TC303 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>926</v>
       </c>
@@ -11611,8 +13170,12 @@
       <c r="F389" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G389" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC303 ',N'Thiết kế và quản trị mạng truyền thông ','3',N'NW212 ',N'27LT+36TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>928</v>
       </c>
@@ -11631,8 +13194,12 @@
       <c r="F390" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G390" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC313 ',N'Kỹ thuật truyền dẫn ','3',N'CF231, CF321 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>931</v>
       </c>
@@ -11651,8 +13218,12 @@
       <c r="F391" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G391" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC314 ',N'Kỹ thuật kết nối mạng ','3',N'CF320, CF321 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>934</v>
       </c>
@@ -11671,8 +13242,12 @@
       <c r="F392" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G392" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC316 ',N'An ninh mạng truyền thông  ','3',N'TC314, NW312/ TC303 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>937</v>
       </c>
@@ -11691,8 +13266,12 @@
       <c r="F393" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G393" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC473 ',N'Quản lý mạng viễn thông ','3',N'TC314 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>939</v>
       </c>
@@ -11711,8 +13290,12 @@
       <c r="F394" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G394" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC423 ',N'Mạng không dây đa bước  ','2',N'CF321 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>941</v>
       </c>
@@ -11731,8 +13314,12 @@
       <c r="F395" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G395" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC427 ',N'Báo hiệu và điều khiển  ','2',N'TC314 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>943</v>
       </c>
@@ -11751,8 +13338,12 @@
       <c r="F396" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G396" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC429 ',N'Chất lượng dịch vụ mạng ','2',N'TC473 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>945</v>
       </c>
@@ -11771,8 +13362,12 @@
       <c r="F397" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G397" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC430 ',N'Tính toán đám mây ','2',N'TC303 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>947</v>
       </c>
@@ -11791,8 +13386,12 @@
       <c r="F398" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G398" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC431 ',N'Mạng cảm biến  ','2',N'TC314 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>949</v>
       </c>
@@ -11811,8 +13410,12 @@
       <c r="F399" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G399" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC432 ',N'Vô tuyến nhận thức ','2',N'CF321 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>951</v>
       </c>
@@ -11831,8 +13434,12 @@
       <c r="F400" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G400" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC418 ',N'Lập trình nhúng ','2',N'CS122 ',N'18LT+24BT ','1.6')</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>954</v>
       </c>
@@ -11851,8 +13458,12 @@
       <c r="F401" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G401" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC420 ',N'Thiết kế hệ thống mạng truyền thông ','2',N'TC300 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>956</v>
       </c>
@@ -11871,8 +13482,12 @@
       <c r="F402" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G402" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC421 ',N'Dữ liệu lớn trong IOT ','2',N'TC314 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>958</v>
       </c>
@@ -11891,8 +13506,12 @@
       <c r="F403" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G403" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC433 ',N'Quản lý dự án truyền thông và mạng máy tính ','2',N'TC473 ',N'18LT+24BT ','1.5')</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>960</v>
       </c>
@@ -11911,8 +13530,12 @@
       <c r="F404" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G404" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC425 ',N'Lập trình ứng dụng IOT ','2',N'CS122 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>962</v>
       </c>
@@ -11931,8 +13554,12 @@
       <c r="F405" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G405" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TC426 ',N'Trí tuệ nhân tạo trong IOT ','2',N'MA300 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>964</v>
       </c>
@@ -11951,8 +13578,12 @@
       <c r="F406" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G406" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('NW323 ',N'Lập trình mạng ','2',N'TC314 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>966</v>
       </c>
@@ -11971,8 +13602,12 @@
       <c r="F407" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G407" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('CS314 ',N'Lập trình ứng dụng di động ','2',N'CS122 ',N'18LT+24TH ','1.6')</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>968</v>
       </c>
@@ -11991,8 +13626,12 @@
       <c r="F408" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G408" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('IS480 ',N'Kiến trúc doanh nghiệp ','3',N'IS383 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>970</v>
       </c>
@@ -12011,8 +13650,12 @@
       <c r="F409" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G409" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('EC221 ',N'Luật kinh tế  ','2',N'SH131 ',N'30','1.3')</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>972</v>
       </c>
@@ -12031,8 +13674,12 @@
       <c r="F410" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G410" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('EC316 ',N'Kinh tế quốc tế ','3',N'EC101 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>700</v>
       </c>
@@ -12048,8 +13695,12 @@
       <c r="F411" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G411" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('FN212 ',N'Quản trị tài chính doanh nghiệp 1 ','3',N'FN211 ',N'','1.4')</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>973</v>
       </c>
@@ -12068,8 +13719,12 @@
       <c r="F412" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G412" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BK201 ',N'Ngân hàng thương mại 1  ','3',N'FN211 ',N'30LT+30BT ','1.8')</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>975</v>
       </c>
@@ -12088,8 +13743,12 @@
       <c r="F413" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G413" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BA222 ',N'Phân tích và lập dự án  ','3',N'FN211 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>977</v>
       </c>
@@ -12108,8 +13767,12 @@
       <c r="F414" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G414" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BK302 ',N'Ngân hàng thương mại 2  ','3',N'BK201 ',N'30LT+30BT ','1.8')</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>979</v>
       </c>
@@ -12128,8 +13791,12 @@
       <c r="F415" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G415" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BK313 ',N'Ngân hàng trung ương ','3',N'BK302 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>981</v>
       </c>
@@ -12148,8 +13815,12 @@
       <c r="F416" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G416" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BK312 ',N'Ngân hàng phát triển ','3',N'BK302 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>983</v>
       </c>
@@ -12168,8 +13839,12 @@
       <c r="F417" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G417" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BK321 ',N'Thanh toán quốc tế ','3',N'FN201 ',N'30LT+30BT ','1.8')</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>985</v>
       </c>
@@ -12188,8 +13863,12 @@
       <c r="F418" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G418" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BK327 ',N'Xuất nhập khẩu ','3',N'FN201 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>987</v>
       </c>
@@ -12208,8 +13887,12 @@
       <c r="F419" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G419" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BK405 ',N'Quản trị rủi ro tín dụng của ngân hàng thương mại ','3',N'BK302 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>989</v>
       </c>
@@ -12228,8 +13911,12 @@
       <c r="F420" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G420" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('MK331 ',N'Marketing ngân hàng ','2',N'MK202 ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>991</v>
       </c>
@@ -12248,8 +13935,12 @@
       <c r="F421" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G421" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('BA324 ',N'Quản lý dự án ','3',N'FN211 ',N'45','1.4')</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>993</v>
       </c>
@@ -12268,8 +13959,12 @@
       <c r="F422" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G422" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ141E ',N'Tiếng Nhật sơ cấp 1 ','4',N'  ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>996</v>
       </c>
@@ -12288,8 +13983,12 @@
       <c r="F423" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G423" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ142E ',N'Tiếng Nhật sơ cấp 2 ','4',N'GJ141E ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>998</v>
       </c>
@@ -12308,8 +14007,12 @@
       <c r="F424" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G424" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ143 ',N'Tiếng Nhật sơ cấp 3 ','4',N'GJ142E, GJ141E≥5 ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>1000</v>
       </c>
@@ -12328,8 +14031,12 @@
       <c r="F425" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G425" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ174 ',N'Bổ trợ kỹ năng tiếng Nhật sơ cấp ','2',N'GJ142E ',N'45(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>1003</v>
       </c>
@@ -12348,8 +14055,12 @@
       <c r="F426" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G426" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ240 ',N'Tiếng Nhật trung cấp 1 ','4',N'GJ143, GJ142E≥5 ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>1006</v>
       </c>
@@ -12368,8 +14079,12 @@
       <c r="F427" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G427" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ242 ',N'Tiếng Nhật trung cấp 2 ','4',N'GJ240, GJ143≥5 ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>1009</v>
       </c>
@@ -12388,8 +14103,12 @@
       <c r="F428" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G428" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ243 ',N'Tiếng Nhật trung cấp 3 ','4',N'GJ242, GJ240≥5 ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>1012</v>
       </c>
@@ -12408,8 +14127,12 @@
       <c r="F429" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G429" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ343 ',N'Tiếng Nhật cao cấp 1 ','4',N'GJ243, GJ242≥5 ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
         <v>625</v>
       </c>
@@ -12428,8 +14151,12 @@
       <c r="F430" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G430" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ344 ',N'Tiếng Nhật cao cấp 2 ','4',N'GJ343, GJ243≥5 ',N'108(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>1017</v>
       </c>
@@ -12448,8 +14175,12 @@
       <c r="F431" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G431" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ270 ',N'Bổ trợ kỹ năng tiếng Nhật trung cấp 1 ','2',N'GJ174 ',N'45(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>1019</v>
       </c>
@@ -12468,8 +14199,12 @@
       <c r="F432" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G432" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ272 ',N'Bổ trợ kỹ năng tiếng Nhật trung cấp 2 ','2',N'GJ240, GJ270 ',N'45(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>1022</v>
       </c>
@@ -12488,8 +14223,12 @@
       <c r="F433" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G433" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ273 ',N'Bổ trợ kỹ năng tiếng Nhật trung cấp 3 ','2',N'GJ242, GJ272 ',N'45(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>1025</v>
       </c>
@@ -12508,8 +14247,12 @@
       <c r="F434" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G434" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ371 ',N'Bổ trợ kỹ năng tiếng Nhật cao cấp 1 ','2',N'GJ243, GJ273 ',N'45(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>1028</v>
       </c>
@@ -12528,8 +14271,12 @@
       <c r="F435" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G435" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('GJ372 ',N'Bổ trợ kỹ năng tiếng Nhật cao cấp 2 ','2',N'GJ343, GJ371 ',N'45(LT+TH) ','2')</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1031</v>
       </c>
@@ -12548,8 +14295,12 @@
       <c r="F436" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G436" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ201 ',N'Ngữ pháp tiếng Nhật 1 ','2',N'GJ242, GJ240≥5 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1033</v>
       </c>
@@ -12568,8 +14319,12 @@
       <c r="F437" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G437" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ304 ',N'Ngữ pháp tiếng Nhật 2 ','2',N'AJ201 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1035</v>
       </c>
@@ -12588,8 +14343,12 @@
       <c r="F438" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G438" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ311 ',N'Đất nước học Nhật Bản ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>1037</v>
       </c>
@@ -12608,8 +14367,12 @@
       <c r="F439" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G439" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ315 ',N'Văn bản tiếng Nhật ','3',N'GJ243 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>1039</v>
       </c>
@@ -12628,8 +14391,12 @@
       <c r="F440" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G440" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ408 ',N'Văn học Nhật Bản 1 ','2',N'GJ343 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>1041</v>
       </c>
@@ -12648,8 +14415,12 @@
       <c r="F441" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G441" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TJ315 ',N'Dịch viết 1 ','2',N'GJ343 ',N'36(LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1043</v>
       </c>
@@ -12668,8 +14439,12 @@
       <c r="F442" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G442" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('TJ415 ',N'Dịch nói 1 ','2',N'GJ343 ',N'36(LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1044</v>
       </c>
@@ -12688,8 +14463,12 @@
       <c r="F443" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G443" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ452 ',N'Kỹ năng giao tiếp tiếng Nhật ','2',N'GJ243≥5 ',N'36(LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1047</v>
       </c>
@@ -12708,8 +14487,12 @@
       <c r="F444" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G444" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ461 ',N'Tiếng Nhật truyền thông ','3',N'GJ343≥5 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1050</v>
       </c>
@@ -12728,8 +14511,12 @@
       <c r="F445" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G445" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('VJ322 ',N'Từ vựng học tiếng Nhật ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1052</v>
       </c>
@@ -12748,8 +14535,12 @@
       <c r="F446" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G446" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('VJ425 ',N'Ngữ dụng học tiếng Nhật ','2',N'GJ344 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1054</v>
       </c>
@@ -12768,8 +14559,12 @@
       <c r="F447" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G447" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ407 ',N'Kỹ thuật giảng dạy tiếng Nhật ','2',N'PJ422 ',N'36(LT+TH) ','1.8')</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1058</v>
       </c>
@@ -12788,8 +14583,12 @@
       <c r="F448" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G448" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ322 ',N'Giảng dạy Tiếng Nhật 1 ','2',N'GJ242≥5 ',N'36(LT+TH) ','1.8')</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>1056</v>
       </c>
@@ -12808,8 +14607,12 @@
       <c r="F449" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G449" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ422 ',N'Giảng dạy Tiếng Nhật 2 ','2',N'PJ322 ',N'36(LT+TH) ','1.8')</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1062</v>
       </c>
@@ -12828,8 +14631,12 @@
       <c r="F450" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G450" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO AppSubjects VALUES('VJ321 ',N'Ngữ âm học tiếng Nhật ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1064</v>
       </c>
@@ -12848,8 +14655,12 @@
       <c r="F451" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G451" s="1" t="str">
+        <f t="shared" ref="G451:G510" si="7">"INSERT INTO AppSubjects VALUES('"&amp;A451&amp;"',N'"&amp;B451&amp;"','"&amp;C451&amp;"',N'"&amp;D451&amp;"',N'"&amp;E451&amp;"','"&amp;F451&amp;"')"</f>
+        <v>INSERT INTO AppSubjects VALUES('AJ313 ',N'Văn minh Nhật Bản ','2',N'AJ311 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12868,8 +14679,12 @@
       <c r="F452" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G452" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ413 ',N'Lịch sử Nhật Bản ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1068</v>
       </c>
@@ -12888,8 +14703,12 @@
       <c r="F453" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G453" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ415 ',N'Văn hóa Nhật Bản 2 ','2',N'GJ343, AJ214≥5 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1071</v>
       </c>
@@ -12908,8 +14727,12 @@
       <c r="F454" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G454" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ404 ',N'Tiếng Nhật giao tiếp doanh nghiệp ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>1073</v>
       </c>
@@ -12928,8 +14751,12 @@
       <c r="F455" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G455" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ323 ',N'Tiếng Nhật kế toán 1 ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1075</v>
       </c>
@@ -12948,8 +14775,12 @@
       <c r="F456" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G456" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ321 ',N'Tiếng Nhật marketing 1 ','2',N'GJ243≥5 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>1077</v>
       </c>
@@ -12968,8 +14799,12 @@
       <c r="F457" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G457" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ425 ',N'Tiếng Nhật marketing 2 ','2',N'PJ321 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1079</v>
       </c>
@@ -12988,8 +14823,12 @@
       <c r="F458" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G458" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ325 ',N'Tiếng Nhật kinh tế 1 ','2',N'GJ343≥5 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>1081</v>
       </c>
@@ -13008,8 +14847,12 @@
       <c r="F459" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G459" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ424 ',N'Tiếng Nhật kinh tế 2 ','2',N'PJ325 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1083</v>
       </c>
@@ -13028,8 +14871,12 @@
       <c r="F460" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G460" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AJ409 ',N'Văn học Nhật Bản 2 ','2',N'AJ408 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>1085</v>
       </c>
@@ -13048,8 +14895,12 @@
       <c r="F461" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G461" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('TJ316 ',N'Dịch viết 2 ','2',N'TJ315 ',N'36(LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1086</v>
       </c>
@@ -13068,8 +14919,12 @@
       <c r="F462" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G462" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('TJ416 ',N'Dịch nói 2 ','2',N'TJ415 ',N'36(LT+BT) ','1.6')</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>1087</v>
       </c>
@@ -13088,8 +14943,12 @@
       <c r="F463" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G463" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('CJ401 ',N'Văn hoá doanh nghiệp Nhật Bản ','2',N'GJ243≥5 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13108,8 +14967,12 @@
       <c r="F464" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G464" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('IP303 ',N'Tiếng Nhật văn phòng ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>1091</v>
       </c>
@@ -13128,8 +14991,12 @@
       <c r="F465" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G465" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('MJ401 ',N'Tiếng Nhật y tế ','2',N'GJ343≥5 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>1093</v>
       </c>
@@ -13148,8 +15015,12 @@
       <c r="F466" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G466" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('MZ333 ',N'Phương pháp giảng dạy chữ Hán ','2',N'GJ243 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13168,8 +15039,12 @@
       <c r="F467" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G467" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ324 ',N'Tiếng Nhật kế toán 2 ','2',N'PJ323 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1097</v>
       </c>
@@ -13185,8 +15060,12 @@
       <c r="F468" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G468" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PJ401 ',N'Thực tập tiếng Nhật tại Nhật Bản ','6',N' 50 tín chỉ ',N'','2.5')</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>1100</v>
       </c>
@@ -13205,8 +15084,12 @@
       <c r="F469" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G469" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('TJ401 ',N'Tiếng Nhật du lịch và khách sạn 1 ','2',N'GJ242 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>1102</v>
       </c>
@@ -13225,8 +15108,12 @@
       <c r="F470" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G470" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('TJ403 ',N'Tiếng Nhật du lịch và khách sạn 2 ','2',N'TJ401 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>1104</v>
       </c>
@@ -13245,8 +15132,12 @@
       <c r="F471" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G471" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('VC441 ',N'Nhập môn thư pháp chữ Hán 1 ','2',N'36 tín chỉ ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1106</v>
       </c>
@@ -13265,8 +15156,12 @@
       <c r="F472" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G472" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ241 ',N'Tiếng Trung trung cấp 1 ','4',N'GZ133 ',N'108','2')</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>1109</v>
       </c>
@@ -13285,8 +15180,12 @@
       <c r="F473" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G473" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ242 ',N'Tiếng Trung trung cấp 2 ','4',N'GZ241 ',N'108','2')</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1111</v>
       </c>
@@ -13305,8 +15204,12 @@
       <c r="F474" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G474" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ243 ',N'Tiếng Trung trung cấp 3 ','4',N'GZ242 ',N'108','2')</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13325,8 +15228,12 @@
       <c r="F475" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G475" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ153 ',N'Kỹ năng nghe, nói, đọc, viết Trung 3  ','3',N'GZ152  ',N'81','1.7')</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>1116</v>
       </c>
@@ -13345,8 +15252,12 @@
       <c r="F476" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G476" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ251 ',N'Kỹ năng nghe, nói, đọc, viết Trung 4 ','3',N'GZ153 ',N'81','1.7')</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>1118</v>
       </c>
@@ -13365,8 +15276,12 @@
       <c r="F477" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G477" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ252 ',N'Kỹ năng nghe, nói, đọc, viết Trung 5 ','4',N'GZ251 ',N'108','1.8')</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1120</v>
       </c>
@@ -13385,8 +15300,12 @@
       <c r="F478" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G478" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GZ253 ',N'Kỹ năng nghe, nói, đọc, viết Trung 6 ','4',N'GZ252  ',N'108','1.8')</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1123</v>
       </c>
@@ -13405,8 +15324,12 @@
       <c r="F479" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G479" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ200 ',N'Lý thuyết dịch ','2',N'GZ242 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>1124</v>
       </c>
@@ -13425,8 +15348,12 @@
       <c r="F480" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G480" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ301 ',N'Dịch viết 1 ','2',N'AZ200 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13445,8 +15372,12 @@
       <c r="F481" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G481" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ302 ',N'Dịch viết 2 ','2',N'AZ301 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1126</v>
       </c>
@@ -13465,8 +15396,12 @@
       <c r="F482" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G482" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ305 ',N'Dịch nói 1 ','2',N'AZ200 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1127</v>
       </c>
@@ -13485,8 +15420,12 @@
       <c r="F483" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G483" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ306 ',N'Dịch nói 2 ','2',N'AZ305 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>1128</v>
       </c>
@@ -13505,8 +15444,12 @@
       <c r="F484" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G484" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ311 ',N'Đất nước học Trung Quốc ','2',N'GZ243 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1130</v>
       </c>
@@ -13525,8 +15468,12 @@
       <c r="F485" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G485" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ312 ',N'Văn học Trung Quốc ','2',N'GZ243 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1132</v>
       </c>
@@ -13545,8 +15492,12 @@
       <c r="F486" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G486" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ313 ',N'Văn hóa Trung Quốc ','2',N'GZ243 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13565,8 +15516,12 @@
       <c r="F487" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G487" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ216 ',N' Ngữ âm và từ vựng tiếng Trung ','3',N'AZ302 ',N'45','1.6')</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1135</v>
       </c>
@@ -13585,8 +15540,12 @@
       <c r="F488" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G488" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ303 ',N' Dịch viết 3 ','2',N'GZ243 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1136</v>
       </c>
@@ -13605,8 +15564,12 @@
       <c r="F489" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G489" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ307 ',N' Dịch nói 3 ','2',N'AZ306 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1137</v>
       </c>
@@ -13625,8 +15588,12 @@
       <c r="F490" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G490" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AZ318',N'  Ngữ pháp tiếng Trung  ','3',N'GZ243 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13645,8 +15612,12 @@
       <c r="F491" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G491" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PZ431',N'  Khẩu ngữ tiếng Trung thương mại 1  ','3',N'GZ243 ',N'45','1.5')</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1145</v>
       </c>
@@ -13665,8 +15636,12 @@
       <c r="F492" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G492" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PZ301',N'  Tiếng Trung báo chí    ','2',N'GZ243 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1147</v>
       </c>
@@ -13685,8 +15660,12 @@
       <c r="F493" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G493" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PZ302 ',N' Ngôn ngữ học đối chiếu   ','2',N'GZ243 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1146</v>
       </c>
@@ -13705,8 +15684,12 @@
       <c r="F494" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G494" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PZ341',N'  Tiếng Trung du lịch 1   ','2',N'GZ243 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1148</v>
       </c>
@@ -13725,8 +15708,12 @@
       <c r="F495" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G495" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('PZ342',N'  Tiếng Trung du lịch 2  ','2',N'PZ341 ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1149</v>
       </c>
@@ -13745,8 +15732,12 @@
       <c r="F496" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G496" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('SC201 ',N' Kỹ năng giao tiếp và thuyết trình  ','2',N'36 tín chỉ ',N'30','1.4')</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1150</v>
       </c>
@@ -13765,8 +15756,12 @@
       <c r="F497" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G497" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('VC441',N'  Nhập môn thư pháp chữ Hán 1  ','2',N'36 tín chỉ ',N'30','1.5')</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>1157</v>
       </c>
@@ -13785,8 +15780,12 @@
       <c r="F498" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G498" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GK241 ',N'Tiếng Hàn trung cấp 1 ','3',N'GK142 ',N'81','2')</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>1160</v>
       </c>
@@ -13805,8 +15804,12 @@
       <c r="F499" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G499" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GK242 ',N'Tiếng Hàn trung cấp 2 ','3',N'GK241 ',N'81','2')</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>1162</v>
       </c>
@@ -13825,8 +15828,12 @@
       <c r="F500" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G500" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GK153 ',N'Kỹ năng nghe, nói, đọc, viết Hàn 3 ','3',N'GK152 ',N'81','2')</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>1165</v>
       </c>
@@ -13845,8 +15852,12 @@
       <c r="F501" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G501" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GK261 ',N'Kỹ năng nghe, nói, đọc, viết Hàn 4 ','3',N'GK153 ',N'81','2')</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1167</v>
       </c>
@@ -13865,8 +15876,12 @@
       <c r="F502" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G502" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GK262 ',N'Kỹ năng nghe, nói, đọc, viết Hàn 5 ','3',N'GK261 ',N'81','2')</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1169</v>
       </c>
@@ -13885,8 +15900,12 @@
       <c r="F503" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G503" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('GK263 ',N'Kỹ năng nghe, nói, đọc, viết Hàn 6 ','3',N'GK262 ',N'81','2')</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1171</v>
       </c>
@@ -13905,8 +15924,12 @@
       <c r="F504" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G504" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AK200 ',N'Lý thuyết dịch ','2',N'AK319 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1173</v>
       </c>
@@ -13925,8 +15948,12 @@
       <c r="F505" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G505" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AK301 ',N'Dịch viết 1 ','3',N'AK200 ',N'45','1.8')</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1174</v>
       </c>
@@ -13945,8 +15972,12 @@
       <c r="F506" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G506" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AK304 ',N'Dịch viết 2 ','3',N'AK301 ',N'45','1.8')</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1175</v>
       </c>
@@ -13965,8 +15996,12 @@
       <c r="F507" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G507" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AK305 ',N'Dịch nói 1 ','3',N'AK200 ',N'45','1.8')</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1176</v>
       </c>
@@ -13985,8 +16020,12 @@
       <c r="F508" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G508" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AK308 ',N'Dịch nói 2 ','3',N'AK305 ',N'45','1.8')</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1177</v>
       </c>
@@ -14005,8 +16044,12 @@
       <c r="F509" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G509" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AK330 ',N'Đất nước học Hàn Quốc ','2',N'AK315 ',N'30','1.6')</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1180</v>
       </c>
@@ -14024,6 +16067,10 @@
       </c>
       <c r="F510" s="1">
         <v>1.6</v>
+      </c>
+      <c r="G510" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO AppSubjects VALUES('AK312 ',N'Văn học Hàn Quốc ','2',N'AK315 ',N'30','1.6')</v>
       </c>
     </row>
   </sheetData>
